--- a/data/San Vicente.xlsx
+++ b/data/San Vicente.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Solek Chile Services SpA</t>
+          <t>Parque Solar Santa Cruz SpA</t>
         </is>
       </c>
       <c r="F3" t="n">

--- a/data/San Vicente.xlsx
+++ b/data/San Vicente.xlsx
@@ -727,7 +727,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Parque Solar La Rosa SpA</t>
+          <t>Parque Solar La Rosa II SpA</t>
         </is>
       </c>
       <c r="F8" t="n">

--- a/data/San Vicente.xlsx
+++ b/data/San Vicente.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J145"/>
+  <dimension ref="A1:J146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sistema de abastecimiento de Agua para Riego - Viña VIK</t>
+          <t>DISTRIBUCIÓN DE ANHIDRIDO SULFUROSO ENTRE LAS REGIONES V, VI, VII Y METROPOLITANA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -434,30 +434,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Viña VIK SpA</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1046</v>
+        <v>30</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/03/2021</t>
+          <t>06/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150793025&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154728377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Mayos</t>
+          <t>Sistema de abastecimiento de Agua para Riego - Viña VIK</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Parque Solar Santa Cruz SpA</t>
+          <t>Viña VIK SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>10000</v>
+        <v>1046</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>22/03/2021</t>
+          <t>23/03/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151191268&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150793025&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sistema de abastecimiento de agua para riego - Viña VIK</t>
+          <t>Parque Fotovoltaico Los Mayos</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Viña VIK SpA</t>
+          <t>Parque Solar Santa Cruz SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1046</v>
+        <v>10000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>23/02/2021</t>
+          <t>22/03/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150832615&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151191268&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parque Solar San Vicente TT</t>
+          <t>Sistema de abastecimiento de agua para riego - Viña VIK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Blue Solar Doce SPA</t>
+          <t>Viña VIK SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>9450</v>
+        <v>1046</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>20/11/2020</t>
+          <t>23/02/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149093426&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150832615&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nuevo Campamento Carén - División El Teniente</t>
+          <t>Parque Solar San Vicente TT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,20 +626,20 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Blue Solar Doce SPA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>25000</v>
+        <v>9450</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>07/04/2020</t>
+          <t>20/11/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146082969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149093426&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Tencas</t>
+          <t>Nuevo Campamento Carén - División El Teniente</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -674,20 +674,20 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>PFV LAS TENCAS SPA</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>23/09/2019</t>
+          <t>07/04/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144269604&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146082969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico La Rosa</t>
+          <t>Parque Fotovoltaico Las Tencas</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Parque Solar La Rosa II SpA</t>
+          <t>PFV LAS TENCAS SPA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>7033</v>
+        <v>12000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>20/06/2019</t>
+          <t>23/09/2019</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143535666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144269604&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Parque Solar La Rosa</t>
+          <t>Parque Fotovoltaico La Rosa</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Parque Solar La Rosa SpA</t>
+          <t>Parque Solar La Rosa II SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -783,17 +783,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>23/05/2019</t>
+          <t>20/06/2019</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143283032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143535666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
+          <t>Parque Solar La Rosa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,30 +818,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Parque Solar La Rosa SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>40</v>
+        <v>7033</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>31/05/2018</t>
+          <t>23/05/2019</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143283032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>"Planta Fotovoltaica San Vicente"</t>
+          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,30 +866,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>GR Ciprés SpA</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>7800</v>
+        <v>40</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>20/04/2018</t>
+          <t>31/05/2018</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138977924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>"Planta Fotovoltaica San Vicente"</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,30 +914,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>GR Ciprés SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>42</v>
+        <v>7800</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>20/04/2018</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138977924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -971,11 +971,11 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>12/06/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>12/06/2017</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>10000</v>
+        <v>37</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Parque Solar Fotovoltaico La Acacia</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1106,20 +1106,20 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>LA ACACIA SPA</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>12300</v>
+        <v>10000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>22/02/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131185453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>Parque Solar Fotovoltaico La Acacia</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1154,20 +1154,20 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>LA ACACIA SPA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>6750</v>
+        <v>12300</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>22/02/2016</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131185453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1200</v>
+        <v>6750</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,11 +1255,11 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Optimización de la Planta de Tratamiento de Aguas Servidas San Vicente de Tagua Tagua</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,20 +1298,20 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1690</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>19/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128945297&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Optimización de la Planta de Tratamiento de Aguas Servidas San Vicente de Tagua Tagua</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>250</v>
+        <v>1690</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>19/12/2013</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128945297&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Riles VIK Viña VIK</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,30 +1394,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>VIÑA VIK LIMITADA</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>185</v>
+        <v>250</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>27/11/2012</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7510869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Estero Zamorano Áridos Estero Zamorano</t>
+          <t>Planta de Tratamiento de Riles VIK Viña VIK</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONCESIONARIA LA FRUTA S.A.</t>
+          <t>VIÑA VIK LIMITADA</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1943</v>
+        <v>185</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>05/11/2012</t>
+          <t>27/11/2012</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7489483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7510869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Planta de Encalado de Lodos</t>
+          <t>Extracción de Áridos Estero Zamorano Áridos Estero Zamorano</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Transportes y Maquinarias Yañez y Cáceres</t>
+          <t>SOCIEDAD CONCESIONARIA LA FRUTA S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>20</v>
+        <v>1943</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>07/09/2012</t>
+          <t>05/11/2012</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7321438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7489483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Planta Encalado de Lodos</t>
+          <t>Planta de Encalado de Lodos</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Sociedad Transportes y Maquinarias Yánez y Cáceres Ltda.</t>
+          <t>Transportes y Maquinarias Yañez y Cáceres</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>30/08/2012</t>
+          <t>07/09/2012</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7258919&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7321438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Planta Encalado de Lodos</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,20 +1586,20 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Sociedad Transportes y Maquinarias Yánez y Cáceres Ltda.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>30/08/2012</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7258919&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Extracción de áridos Río Cachapoal, sector Puente Peumo Aridos puente Peumo</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,30 +1634,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONCESIONARIA LA FRUTA S.A.</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>29/02/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6642709&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Extracción de áridos Río Cachapoal, sector Puente Peumo Aridos puente Peumo</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,30 +1682,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>SOCIEDAD CONCESIONARIA LA FRUTA S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>29/02/2012</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6642709&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,15 +1735,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,12 +1816,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Concesión Ruta 66 - Camino de La Fruta</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Ruta de la Fruta S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>400500</v>
+        <v>100</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>24/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6244877&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,30 +1864,30 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Reutilización de Lodos para Generación de Vapor Lodos para generacion de vapor</t>
+          <t>Concesión Ruta 66 - Camino de La Fruta</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Faenadora San Vicente Ltda</t>
+          <t>Sociedad Concesionaria Ruta de la Fruta S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1000</v>
+        <v>400500</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>23/11/2011</t>
+          <t>24/11/2011</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6288056&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6244877&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Reutilización de Lodos para Generación de Vapor Lodos para generacion de vapor</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,30 +1922,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Faenadora San Vicente Ltda</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>23/11/2011</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6288056&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2079,17 +2079,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas."</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>TRICAL SUDAMERICA S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>11/04/2011</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5520949&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas." .</t>
+          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas."</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2175,17 +2175,17 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>25/03/2011</t>
+          <t>11/04/2011</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5470359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5520949&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas."</t>
+          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas." .</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>10/03/2011</t>
+          <t>25/03/2011</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5435927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5470359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas." .</t>
+          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas."</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>10/12/2010</t>
+          <t>10/03/2011</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5141765&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5435927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Producción y Manejo de Residuos Planta de Mermeladas y Jugos de Pulpa Concentrada AGROINDUSTRIA REQUEHUA LIMITADA</t>
+          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas." .</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,20 +2306,20 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Agroindustria Requehua Limitada</t>
+          <t>TRICAL SUDAMERICA S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>14/10/2010</t>
+          <t>10/12/2010</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4669650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5141765&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>PLANTA TRATAMIENTO AGUAS SERVIDAS ZUÑIGA</t>
+          <t>Producción y Manejo de Residuos Planta de Mermeladas y Jugos de Pulpa Concentrada AGROINDUSTRIA REQUEHUA LIMITADA</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Vicente de Tagua Tagua</t>
+          <t>Agroindustria Requehua Limitada</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>745</v>
+        <v>230</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>14/10/2010</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4859738&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4669650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
+          <t>PLANTA TRATAMIENTO AGUAS SERVIDAS ZUÑIGA</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Trefrut Ltda</t>
+          <t>I. Municipalidad de San Vicente de Tagua Tagua</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>20</v>
+        <v>745</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>13/05/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4859738&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Trefrut Ltda</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>13/05/2010</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2511,17 +2511,17 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2607,17 +2607,17 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGUALDOR, SECCIONAL COSTANERA (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,12 +2642,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Vicente de Tagua Tagua</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -2655,7 +2655,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>20/11/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4205505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>MODIFICACION PLAN REGUALDOR, SECCIONAL COSTANERA (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,20 +2690,20 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>I. Municipalidad de San Vicente de Tagua Tagua</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>20/11/2009</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4205505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>"Construcción Puente El Tambo, Comunas San Vicente de tagua Tagua y Malooa, VI Región" (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,30 +2738,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>377</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>17/09/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4041113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>PLANTA TRATAMIENTO AGUAS SERVIDAS ZUÑIGA (e-seia)</t>
+          <t>"Construcción Puente El Tambo, Comunas San Vicente de tagua Tagua y Malooa, VI Región" (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Vicente de Tagua Tagua</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>689</v>
+        <v>0</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>14/07/2009</t>
+          <t>17/09/2009</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3889925&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4041113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
+          <t>PLANTA TRATAMIENTO AGUAS SERVIDAS ZUÑIGA (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>I. Municipalidad de San Vicente de Tagua Tagua</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>50</v>
+        <v>689</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>06/07/2009</t>
+          <t>14/07/2009</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3889925&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,30 +2882,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>06/07/2009</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,10 +2920,14 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>CONCESIÓN RUTA 66 CAMINO DE LA FRUTA</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -2931,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>300000</v>
+        <v>22</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>13/02/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3565282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2964,40 +2968,36 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Respaldo de Energía Eléctrica, Faenadora San Vicente (e-seia)</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>CONCESIÓN RUTA 66 CAMINO DE LA FRUTA</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Faenadora San Vicente Ltda</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>4144</v>
+        <v>300000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>18/12/2008</t>
+          <t>13/02/2009</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3432049&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3565282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3035,17 +3035,17 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>15/12/2008</t>
+          <t>18/12/2008</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3421794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3432049&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3060,7 +3060,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Modificación al Sistema de Respaldo de Energía Eléctrica, Faenadora San Vicente (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3070,30 +3070,30 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Faenadora San Vicente Ltda</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>300</v>
+        <v>4144</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>15/12/2008</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3421794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3108,7 +3108,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3123,25 +3123,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3171,25 +3171,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3204,7 +3204,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3219,11 +3219,11 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3232,12 +3232,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3285,7 +3285,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3300,7 +3300,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3315,25 +3315,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3348,7 +3348,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3363,15 +3363,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>139</v>
+        <v>1750</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>26/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3381,7 +3381,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3396,7 +3396,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILES; Santiago Correa Muzard (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3406,30 +3406,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Santiago Correa Muzard</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>10/09/2008</t>
+          <t>26/09/2008</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3153009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3444,7 +3444,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Sistema de Tratamiento de RILES; Santiago Correa Muzard (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3454,30 +3454,30 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Santiago Correa Muzard</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1750</v>
+        <v>26</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>10/09/2008</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3153009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3492,7 +3492,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3507,15 +3507,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>01/09/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3525,7 +3525,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3540,7 +3540,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3555,15 +3555,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/09/2008</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3573,7 +3573,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3588,7 +3588,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3603,25 +3603,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1650</v>
+        <v>250</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3636,7 +3636,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3651,25 +3651,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>80</v>
+        <v>1650</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3684,7 +3684,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3707,17 +3707,17 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3732,7 +3732,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3747,15 +3747,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1650</v>
+        <v>80</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3765,7 +3765,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3780,7 +3780,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3795,25 +3795,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>200</v>
+        <v>1650</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3843,15 +3843,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3861,7 +3861,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3876,7 +3876,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3891,15 +3891,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>21/02/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3909,7 +3909,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3939,25 +3939,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>21/02/2008</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3972,7 +3972,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3987,25 +3987,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LA REGIONES VI Y VIII (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,11 +4039,11 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>11/01/2008</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4053,7 +4053,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2630709&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4068,36 +4068,40 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Centro de Gestión de Residuos Sólidos Punta Alta, Segunda Presentación</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr"/>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LA REGIONES VI Y VIII (e-seia)</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Pedro Emilio Perez Valenzuela</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>6000</v>
+        <v>100</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>18/12/2007</t>
+          <t>11/01/2008</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2582150&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2630709&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4112,7 +4116,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Centro de Gestión de Residuos Sólidos Punta Alta Relleno Punta Alta</t>
+          <t>Centro de Gestión de Residuos Sólidos Punta Alta, Segunda Presentación</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -4131,7 +4135,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>21/11/2007</t>
+          <t>18/12/2007</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4141,7 +4145,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2512946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2582150&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4156,40 +4160,36 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Centro de Gestión de Residuos Sólidos Punta Alta Relleno Punta Alta</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Pedro Emilio Perez Valenzuela</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>429</v>
+        <v>6000</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>21/11/2007</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2512946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4204,7 +4204,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4219,25 +4219,25 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4252,7 +4252,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4267,25 +4267,25 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4300,7 +4300,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4315,25 +4315,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4348,7 +4348,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Liquidos (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4358,30 +4358,30 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Santiago Correa Muzard</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>09/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2306300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4396,7 +4396,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Liquidos (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4406,30 +4406,30 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Santiago Correa Muzard</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>300</v>
+        <v>26</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>09/08/2007</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2306300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4444,7 +4444,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4459,25 +4459,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4492,7 +4492,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4507,25 +4507,25 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4540,7 +4540,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4559,21 +4559,21 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4588,7 +4588,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4603,25 +4603,25 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4636,7 +4636,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4659,17 +4659,17 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4684,7 +4684,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Liquidos (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4694,30 +4694,30 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Santiago Correa Muzard</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>26/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1890752&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4732,7 +4732,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Liquidos (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4742,20 +4742,20 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Santiago Correa Muzard</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>26/12/2006</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4765,7 +4765,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1890752&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4780,7 +4780,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4795,25 +4795,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4843,15 +4843,15 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4861,7 +4861,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4891,7 +4891,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4909,7 +4909,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4924,7 +4924,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Riles Bodega de Vinos Viña Dominicia (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4934,20 +4934,20 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Soc. Agricola y Vitivinicola San Vicente del Rapel Ltda.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>30</v>
+        <v>250</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>04/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4957,7 +4957,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1649982&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Sistema de Respaldo de Energía Eléctrica Faenadora San Vicente Ltda. (e-seia)</t>
+          <t>Sistema de Tratamiento de Riles Bodega de Vinos Viña Dominicia (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4987,15 +4987,15 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Faenadora San Vicente Ltda</t>
+          <t>Soc. Agricola y Vitivinicola San Vicente del Rapel Ltda.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>4144</v>
+        <v>30</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>31/08/2006</t>
+          <t>04/09/2006</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5005,7 +5005,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1660873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1649982&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5020,7 +5020,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>Sistema de Respaldo de Energía Eléctrica Faenadora San Vicente Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5030,20 +5030,20 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
+          <t>Faenadora San Vicente Ltda</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>138</v>
+        <v>4144</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>19/07/2006</t>
+          <t>31/08/2006</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5053,7 +5053,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1660873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5068,7 +5068,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Riles, Viña santiago Correa (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5078,30 +5078,30 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Santiago Correa Muzard</t>
+          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>29/06/2006</t>
+          <t>19/07/2006</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1514426&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5116,7 +5116,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>Sistema de Tratamiento de Riles, Viña santiago Correa (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5126,30 +5126,30 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Santiago Correa Muzard</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>138</v>
+        <v>26</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>20/06/2006</t>
+          <t>29/06/2006</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1514426&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5179,25 +5179,25 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>500</v>
+        <v>138</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>20/06/2006</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5212,7 +5212,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5235,17 +5235,17 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5260,7 +5260,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5275,25 +5275,25 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5308,7 +5308,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5331,17 +5331,17 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5371,25 +5371,25 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5404,7 +5404,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de San Vicente de Tagua Tagua (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5414,20 +5414,20 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1565</v>
+        <v>72</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>03/01/2006</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5437,7 +5437,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198128&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5452,7 +5452,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de San Vicente de Tagua Tagua (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5462,30 +5462,30 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>72</v>
+        <v>1565</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>03/01/2006</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198128&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5500,7 +5500,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5515,25 +5515,25 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>3517</v>
+        <v>72</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5548,7 +5548,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5563,15 +5563,15 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5581,7 +5581,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5596,7 +5596,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5611,15 +5611,15 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5629,7 +5629,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5644,7 +5644,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5659,15 +5659,15 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5677,7 +5677,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5707,11 +5707,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5740,7 +5740,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5755,11 +5755,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5788,7 +5788,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Ampliación Faenadora San Vicente de Tagua Tagua (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5798,20 +5798,20 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Faenadora San Vicente Ltda</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>06/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5821,7 +5821,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=919249&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5836,7 +5836,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Modificación Proyecto Ampliación Faenadora San Vicente de Tagua Tagua (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5846,20 +5846,20 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Faenadora San Vicente Ltda</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>06/07/2005</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5869,7 +5869,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=919249&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5884,7 +5884,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5899,15 +5899,15 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5917,7 +5917,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5932,7 +5932,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>MODIFICACION PROYECTO CONJUNTO HABITACIONAL MANUEL FORD GONZALEZ (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5942,20 +5942,20 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Constructora e Inmobiliaria Rodas S.A.</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>333</v>
+        <v>855</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>12/04/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5965,7 +5965,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=652041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5980,7 +5980,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PROYECTO CONJUNTO HABITACIONAL MANUEL FORD GONZÁLES (e-seia)</t>
+          <t>MODIFICACION PROYECTO CONJUNTO HABITACIONAL MANUEL FORD GONZALEZ (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5999,21 +5999,21 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>01/04/2005</t>
+          <t>12/04/2005</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=643915&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=652041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6028,7 +6028,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>MODIFICACIÓN PROYECTO CONJUNTO HABITACIONAL MANUEL FORD GONZÁLES (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6038,20 +6038,20 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Constructora e Inmobiliaria Rodas S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>855</v>
+        <v>323</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>01/04/2005</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6061,7 +6061,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=643915&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6076,7 +6076,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6091,15 +6091,15 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6109,7 +6109,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6124,40 +6124,40 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Central Ciclo Combinado Monte Lorenzo</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>AES GENER S.A</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>210000</v>
+        <v>200</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>07/02/2005</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=881326&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6172,12 +6172,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de San Vicente de Tagua Tagua (e-seia)</t>
+          <t>Central Ciclo Combinado Monte Lorenzo</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -6187,25 +6187,25 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Vicente de Tagua Tagua</t>
+          <t>AES GENER S.A</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>210000</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>31/01/2005</t>
+          <t>07/02/2005</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=586156&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=881326&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6220,7 +6220,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal de San Vicente de Tagua Tagua (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6230,12 +6230,12 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>I. Municipalidad de San Vicente de Tagua Tagua</t>
         </is>
       </c>
       <c r="F123" t="n">
@@ -6243,7 +6243,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>31/01/2005</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6253,7 +6253,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=586156&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6268,7 +6268,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN FAENADORA SAN VICENTE DE TAGUA TAGUA (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6278,20 +6278,20 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Faenadora San Vicente Ltda</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>27900</v>
+        <v>0</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>26/05/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6301,7 +6301,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=361989&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6316,7 +6316,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Monorrelleno San Vicente de Tagua Tagua (e-seia)</t>
+          <t>AMPLIACIÓN FAENADORA SAN VICENTE DE TAGUA TAGUA (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6331,25 +6331,25 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Juan Pablo Yanez Marmolejo</t>
+          <t>Faenadora San Vicente Ltda</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>71</v>
+        <v>27900</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>26/02/2004</t>
+          <t>26/05/2004</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=281244&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=361989&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6364,7 +6364,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
+          <t>Modificación Proyecto Monorrelleno San Vicente de Tagua Tagua (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6379,25 +6379,25 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>Juan Pablo Yanez Marmolejo</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>26/02/2004</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=281244&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6412,7 +6412,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL DEL PLAN REGULADOR DE SAN VICENTE DE TAGUA TAGUA (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6427,7 +6427,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Vicente de Tagua Tagua</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F127" t="n">
@@ -6435,7 +6435,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>28/10/2003</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=167418&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6460,7 +6460,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNAL DE SAN VICENTE DE TAGUA TAGUA (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL DEL PLAN REGULADOR DE SAN VICENTE DE TAGUA TAGUA (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6475,7 +6475,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Virginia Troncoso Hellman</t>
+          <t>I. Municipalidad de San Vicente de Tagua Tagua</t>
         </is>
       </c>
       <c r="F128" t="n">
@@ -6483,17 +6483,17 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>10/09/2003</t>
+          <t>28/10/2003</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=146885&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=167418&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6508,7 +6508,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Relleno Sanitario Punta Alta (e-seia)</t>
+          <t>PLAN REGULADOR COMUNAL DE SAN VICENTE DE TAGUA TAGUA (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6523,25 +6523,25 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Sociedad Relleno Sanitario Punta Alta</t>
+          <t>Virginia Troncoso Hellman</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>19/06/2003</t>
+          <t>10/09/2003</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=99153&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=146885&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6556,7 +6556,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cal (e-seia)</t>
+          <t>Relleno Sanitario Punta Alta (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6566,20 +6566,20 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Portuaria Carranza S.A.</t>
+          <t>Sociedad Relleno Sanitario Punta Alta</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>177</v>
+        <v>1000</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>23/01/2003</t>
+          <t>19/06/2003</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6589,7 +6589,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=99153&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6604,7 +6604,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Manuel Ford González (e-seia)</t>
+          <t>Almacenaje y Transporte de Cal (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6614,30 +6614,30 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Constructora e Inmobiliaria Rodas S.A.</t>
+          <t>Portuaria Carranza S.A.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>2</v>
+        <v>177</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>29/08/2002</t>
+          <t>23/01/2003</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=28971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6652,40 +6652,40 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Gasoducto GasAndes Extensión a la VI Región Ruta San Vicente Caletones</t>
+          <t>Conjunto Habitacional Manuel Ford González (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Gasoducto GasAndes S.A.</t>
+          <t>Constructora e Inmobiliaria Rodas S.A.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>35000</v>
+        <v>2</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>06/02/2002</t>
+          <t>29/08/2002</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=28971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6700,30 +6700,30 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Alcantarillado de San Vicente Extensión Red Sectores Callejones Germán Riesco y Camino El Cristo. Comuna de San Vicente.</t>
+          <t>Gasoducto GasAndes Extensión a la VI Región Ruta San Vicente Caletones</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Vicente de Tagua Tagua</t>
+          <t>Gasoducto GasAndes S.A.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>2500</v>
+        <v>35000</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>16/02/2001</t>
+          <t>06/02/2002</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6733,7 +6733,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6748,7 +6748,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Diseño del Mejoramiento Integral del Sistema de Agua Potable de San Vicente de Tagua Tagua.</t>
+          <t>Alcantarillado de San Vicente Extensión Red Sectores Callejones Germán Riesco y Camino El Cristo. Comuna de San Vicente.</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6763,15 +6763,15 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>I. Municipalidad de San Vicente de Tagua Tagua</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>1550</v>
+        <v>2500</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>31/01/2001</t>
+          <t>16/02/2001</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6781,7 +6781,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3636&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6796,7 +6796,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Mono Relleno para Lodos No Peligrosos</t>
+          <t>Diseño del Mejoramiento Integral del Sistema de Agua Potable de San Vicente de Tagua Tagua.</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6811,25 +6811,25 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Juan Pablo Yanez Marmolejo</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>0</v>
+        <v>1550</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>11/10/2000</t>
+          <t>31/01/2001</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3404&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3636&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6844,7 +6844,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de San Vicente de Tagua Tagua</t>
+          <t>Mono Relleno para Lodos No Peligrosos</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6859,25 +6859,25 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Juan Pablo Yanez Marmolejo</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>03/10/2000</t>
+          <t>11/10/2000</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3260&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3404&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6892,7 +6892,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Planta San Vicente Sociedad Petreos S.A.</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de San Vicente de Tagua Tagua</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6907,25 +6907,25 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Pétreos S.A.</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>17/07/2000</t>
+          <t>03/10/2000</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2998&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3260&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6940,7 +6940,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Almacenamiento Mezcla Transvase y Transporte de Sustancias Agroquímicas para la Fumigación de Suelos en la Comuna de Rengo VI Región</t>
+          <t>Planta San Vicente Sociedad Petreos S.A.</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6950,30 +6950,30 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>TRICAL SUDAMERICA S.A.</t>
+          <t>Pétreos S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>700</v>
+        <v>110</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>30/05/2000</t>
+          <t>17/07/2000</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2889&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2998&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6988,7 +6988,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Terminal de Microbuses Galgo Omnibus</t>
+          <t>Almacenamiento Mezcla Transvase y Transporte de Sustancias Agroquímicas para la Fumigación de Suelos en la Comuna de Rengo VI Región</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -6998,20 +6998,20 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Galgo Omnibus Ltda.</t>
+          <t>TRICAL SUDAMERICA S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>23/03/2000</t>
+          <t>30/05/2000</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2889&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7036,7 +7036,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Terminal de Microbuses Galgo Omnibus</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7046,20 +7046,20 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>Sociedad de Transportes Galgo Omnibus Ltda.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>23/03/2000</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7069,7 +7069,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7084,7 +7084,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Loteo Conjunto Habitacional Padre Cristoforo Colombo</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7094,20 +7094,20 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Inmobiliaria Gran Rancagua Ltda.</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>5400</v>
+        <v>2500</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>14/12/1998</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7117,7 +7117,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7132,7 +7132,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Actividad de Reutilización de Lodos Provenientes de una planta de Tratamiento de Residuos Líquidos Industriales</t>
+          <t>Loteo Conjunto Habitacional Padre Cristoforo Colombo</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7147,15 +7147,15 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Faenadora San Vicente Ltda</t>
+          <t>Inmobiliaria Gran Rancagua Ltda.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>5400</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>28/09/1998</t>
+          <t>14/12/1998</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7165,7 +7165,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1413&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7180,7 +7180,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedentes Fundición Caletones-Fase I Ruta de Carga Distribuida</t>
+          <t>Actividad de Reutilización de Lodos Provenientes de una planta de Tratamiento de Residuos Líquidos Industriales</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7190,20 +7190,20 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Faenadora San Vicente Ltda</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>25/03/1998</t>
+          <t>28/09/1998</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7213,7 +7213,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=877&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1413&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7228,7 +7228,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedentes Fundición Caletones-Fase I Ruta Compartida</t>
+          <t>Transporte de Ácido Sulfúrico Excedentes Fundición Caletones-Fase I Ruta de Carga Distribuida</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7261,7 +7261,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=878&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=877&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7276,7 +7276,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedentes Fundición Caletones-Fase I Ruta Única</t>
+          <t>Transporte de Ácido Sulfúrico Excedentes Fundición Caletones-Fase I Ruta Compartida</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7309,10 +7309,58 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=878&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>San Vicente</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Transporte de Ácido Sulfúrico Excedentes Fundición Caletones-Fase I Ruta Única</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>11000</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>25/03/1998</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=879&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J145" t="inlineStr">
+      <c r="J146" t="inlineStr">
         <is>
           <t>San Vicente</t>
         </is>

--- a/data/San Vicente.xlsx
+++ b/data/San Vicente.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>06/02/2023</t>
+          <t>10/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
